--- a/AdministradorSeguros/Uploads/Polizaejemplo.xlsx
+++ b/AdministradorSeguros/Uploads/Polizaejemplo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="119">
   <si>
     <t>PERIODO</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>RentaTemporal</t>
+  </si>
+  <si>
+    <t>ITT</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +832,7 @@
         <v>201705</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
